--- a/StructureDefinition-class.xlsx
+++ b/StructureDefinition-class.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-10T20:10:57+00:00</t>
+    <t>2022-10-10T20:11:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-class.xlsx
+++ b/StructureDefinition-class.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-10T20:11:06+00:00</t>
+    <t>2022-10-10T20:11:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-class.xlsx
+++ b/StructureDefinition-class.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-21T23:00:19+00:00</t>
+    <t>2022-10-21T23:01:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-class.xlsx
+++ b/StructureDefinition-class.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-21T23:01:56+00:00</t>
+    <t>2022-10-21T23:10:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-class.xlsx
+++ b/StructureDefinition-class.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-21T23:10:36+00:00</t>
+    <t>2022-10-21T23:24:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-class.xlsx
+++ b/StructureDefinition-class.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-21T23:24:13+00:00</t>
+    <t>2022-10-23T08:50:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-class.xlsx
+++ b/StructureDefinition-class.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-23T08:50:48+00:00</t>
+    <t>2022-10-23T08:58:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-class.xlsx
+++ b/StructureDefinition-class.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-23T08:58:51+00:00</t>
+    <t>2022-10-23T16:03:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-class.xlsx
+++ b/StructureDefinition-class.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-23T16:03:39+00:00</t>
+    <t>2022-10-23T18:15:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-class.xlsx
+++ b/StructureDefinition-class.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-23T18:15:07+00:00</t>
+    <t>2022-10-23T19:27:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -234,7 +234,7 @@
     <t>*</t>
   </si>
   <si>
-    <t xml:space="preserve"> group </t>
+    <t>group</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1

--- a/StructureDefinition-class.xlsx
+++ b/StructureDefinition-class.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-23T19:27:30+00:00</t>
+    <t>2022-10-23T19:35:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-class.xlsx
+++ b/StructureDefinition-class.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-23T19:35:12+00:00</t>
+    <t>2022-10-23T20:13:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-class.xlsx
+++ b/StructureDefinition-class.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-23T20:13:34+00:00</t>
+    <t>2022-10-25T12:14:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-class.xlsx
+++ b/StructureDefinition-class.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-25T12:14:01+00:00</t>
+    <t>2022-10-25T13:47:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-class.xlsx
+++ b/StructureDefinition-class.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-25T13:47:24+00:00</t>
+    <t>2022-10-30T17:01:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-class.xlsx
+++ b/StructureDefinition-class.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-30T17:01:43+00:00</t>
+    <t>2022-10-30T18:15:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-class.xlsx
+++ b/StructureDefinition-class.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-30T18:15:34+00:00</t>
+    <t>2022-10-30T20:04:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-class.xlsx
+++ b/StructureDefinition-class.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-30T20:04:00+00:00</t>
+    <t>2022-10-30T21:50:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-class.xlsx
+++ b/StructureDefinition-class.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-30T21:50:47+00:00</t>
+    <t>2022-10-30T22:04:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-class.xlsx
+++ b/StructureDefinition-class.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-30T22:04:36+00:00</t>
+    <t>2022-10-30T22:13:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-class.xlsx
+++ b/StructureDefinition-class.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-30T22:13:17+00:00</t>
+    <t>2022-11-02T06:16:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-class.xlsx
+++ b/StructureDefinition-class.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-02T06:16:24+00:00</t>
+    <t>2022-11-02T20:48:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-class.xlsx
+++ b/StructureDefinition-class.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-02T20:48:31+00:00</t>
+    <t>2022-11-03T14:07:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-class.xlsx
+++ b/StructureDefinition-class.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-05T15:30:00+00:00</t>
+    <t>2022-11-05T15:35:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-class.xlsx
+++ b/StructureDefinition-class.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-05T15:35:25+00:00</t>
+    <t>2022-11-06T17:03:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-class.xlsx
+++ b/StructureDefinition-class.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-06T17:03:22+00:00</t>
+    <t>2022-11-06T21:19:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-class.xlsx
+++ b/StructureDefinition-class.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-06T21:19:48+00:00</t>
+    <t>2022-11-06T22:26:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-class.xlsx
+++ b/StructureDefinition-class.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-07T21:05:10+00:00</t>
+    <t>2022-11-07T21:23:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-class.xlsx
+++ b/StructureDefinition-class.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-07T21:23:46+00:00</t>
+    <t>2022-11-07T21:31:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-class.xlsx
+++ b/StructureDefinition-class.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-07T21:31:45+00:00</t>
+    <t>2022-11-08T20:50:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-class.xlsx
+++ b/StructureDefinition-class.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-11T12:45:51+00:00</t>
+    <t>2022-11-11T12:48:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-class.xlsx
+++ b/StructureDefinition-class.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-11T12:48:43+00:00</t>
+    <t>2022-11-11T13:10:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-class.xlsx
+++ b/StructureDefinition-class.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://unicom-project.eu/fhir/StructureDefinition/class</t>
+    <t>https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/class</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-11T13:10:08+00:00</t>
+    <t>2022-11-11T15:50:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>FHIR Version</t>
   </si>
   <si>
-    <t>4.3.0</t>
+    <t>5.0.0-ballot</t>
   </si>
   <si>
     <t>Kind</t>
@@ -317,7 +317,7 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/2021Mar/extensibility.html#modifierExtension).</t>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://build.fhir.org/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>N/A</t>

--- a/StructureDefinition-class.xlsx
+++ b/StructureDefinition-class.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/class</t>
+    <t>http://unicom-project.eu/fhir/StructureDefinition/class</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-11T20:48:35+00:00</t>
+    <t>2022-11-12T19:50:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>FHIR Version</t>
   </si>
   <si>
-    <t>5.0.0-ballot</t>
+    <t>4.3.0</t>
   </si>
   <si>
     <t>Kind</t>
@@ -317,7 +317,7 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://build.fhir.org/extensibility.html#modifierExtension).</t>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/2021Mar/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>N/A</t>

--- a/StructureDefinition-class.xlsx
+++ b/StructureDefinition-class.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-12T19:50:48+00:00</t>
+    <t>2022-11-12T20:00:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-class.xlsx
+++ b/StructureDefinition-class.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://unicom-project.eu/fhir/StructureDefinition/class</t>
+    <t>https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/class</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-12T20:00:33+00:00</t>
+    <t>2022-11-14T19:25:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>FHIR Version</t>
   </si>
   <si>
-    <t>4.3.0</t>
+    <t>5.0.0-ballot</t>
   </si>
   <si>
     <t>Kind</t>
@@ -317,7 +317,7 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/2021Mar/extensibility.html#modifierExtension).</t>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://build.fhir.org/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>N/A</t>

--- a/StructureDefinition-class.xlsx
+++ b/StructureDefinition-class.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/class</t>
+    <t>http://unicom-project.eu/fhir/StructureDefinition/class</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-14T19:25:53+00:00</t>
+    <t>2022-11-16T21:11:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>FHIR Version</t>
   </si>
   <si>
-    <t>5.0.0-ballot</t>
+    <t>4.3.0</t>
   </si>
   <si>
     <t>Kind</t>
@@ -317,7 +317,7 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://build.fhir.org/extensibility.html#modifierExtension).</t>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/2021Mar/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>N/A</t>

--- a/StructureDefinition-class.xlsx
+++ b/StructureDefinition-class.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-16T21:11:51+00:00</t>
+    <t>2022-11-16T21:23:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-class.xlsx
+++ b/StructureDefinition-class.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-16T21:23:11+00:00</t>
+    <t>2022-11-17T06:36:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-class.xlsx
+++ b/StructureDefinition-class.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://unicom-project.eu/fhir/StructureDefinition/class</t>
+    <t>https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/class</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-17T06:36:33+00:00</t>
+    <t>2022-11-17T17:44:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>FHIR Version</t>
   </si>
   <si>
-    <t>4.3.0</t>
+    <t>5.0.0-ballot</t>
   </si>
   <si>
     <t>Kind</t>
@@ -317,7 +317,7 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/2021Mar/extensibility.html#modifierExtension).</t>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://build.fhir.org/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>N/A</t>

--- a/StructureDefinition-class.xlsx
+++ b/StructureDefinition-class.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/class</t>
+    <t>http://unicom-project.eu/fhir/StructureDefinition/class</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-17T17:44:56+00:00</t>
+    <t>2022-11-18T19:44:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>FHIR Version</t>
   </si>
   <si>
-    <t>5.0.0-ballot</t>
+    <t>4.3.0</t>
   </si>
   <si>
     <t>Kind</t>
@@ -317,7 +317,7 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://build.fhir.org/extensibility.html#modifierExtension).</t>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/2021Mar/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>N/A</t>

--- a/StructureDefinition-class.xlsx
+++ b/StructureDefinition-class.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-18T19:44:59+00:00</t>
+    <t>2022-11-18T19:50:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-class.xlsx
+++ b/StructureDefinition-class.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-18T19:50:12+00:00</t>
+    <t>2022-11-18T19:51:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-class.xlsx
+++ b/StructureDefinition-class.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-18T19:51:53+00:00</t>
+    <t>2022-11-18T19:52:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-class.xlsx
+++ b/StructureDefinition-class.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-18T19:52:09+00:00</t>
+    <t>2022-11-18T19:57:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-class.xlsx
+++ b/StructureDefinition-class.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-18T19:57:45+00:00</t>
+    <t>2022-11-19T06:10:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-class.xlsx
+++ b/StructureDefinition-class.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-19T22:26:15+00:00</t>
+    <t>2022-11-19T22:53:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-class.xlsx
+++ b/StructureDefinition-class.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-19T22:53:07+00:00</t>
+    <t>2022-11-20T07:00:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-class.xlsx
+++ b/StructureDefinition-class.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T07:00:59+00:00</t>
+    <t>2022-11-20T07:03:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-class.xlsx
+++ b/StructureDefinition-class.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T07:03:41+00:00</t>
+    <t>2022-11-20T09:28:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-class.xlsx
+++ b/StructureDefinition-class.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://unicom-project.eu/fhir/StructureDefinition/class</t>
+    <t>http://hl7-eu.github.io/unicom-ig/StructureDefinition/class</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T09:28:17+00:00</t>
+    <t>2022-11-20T13:37:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-class.xlsx
+++ b/StructureDefinition-class.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T13:37:56+00:00</t>
+    <t>2022-11-20T14:32:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-class.xlsx
+++ b/StructureDefinition-class.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7-eu.github.io/unicom-ig/StructureDefinition/class</t>
+    <t>http://unicom-project.eu/fhir/StructureDefinition/class</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T14:32:03+00:00</t>
+    <t>2022-11-20T17:12:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-class.xlsx
+++ b/StructureDefinition-class.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T17:12:02+00:00</t>
+    <t>2022-11-20T17:48:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-class.xlsx
+++ b/StructureDefinition-class.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T17:48:06+00:00</t>
+    <t>2022-11-20T20:12:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-class.xlsx
+++ b/StructureDefinition-class.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T20:12:04+00:00</t>
+    <t>2022-11-20T20:23:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-class.xlsx
+++ b/StructureDefinition-class.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T20:23:35+00:00</t>
+    <t>2022-11-21T10:47:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-class.xlsx
+++ b/StructureDefinition-class.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-21T10:47:26+00:00</t>
+    <t>2022-11-22T13:07:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-class.xlsx
+++ b/StructureDefinition-class.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://unicom-project.eu/fhir/StructureDefinition/class</t>
+    <t>http://hl7-eu.github.io/unicom-ig/StructureDefinition/class</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-22T13:07:41+00:00</t>
+    <t>2022-11-22T13:49:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-class.xlsx
+++ b/StructureDefinition-class.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-22T13:49:32+00:00</t>
+    <t>2022-11-22T14:02:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-class.xlsx
+++ b/StructureDefinition-class.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7-eu.github.io/unicom-ig/StructureDefinition/class</t>
+    <t>http://unicom-project.eu/fhir/StructureDefinition/class</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-22T14:02:44+00:00</t>
+    <t>2022-11-22T20:42:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-class.xlsx
+++ b/StructureDefinition-class.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-22T20:42:27+00:00</t>
+    <t>2022-11-24T22:13:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-class.xlsx
+++ b/StructureDefinition-class.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://unicom-project.eu/fhir/StructureDefinition/class</t>
+    <t>http://hl7-eu.github.io/unicom-ig/StructureDefinition/class</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-24T22:13:14+00:00</t>
+    <t>2022-11-25T11:25:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-class.xlsx
+++ b/StructureDefinition-class.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-25T11:25:38+00:00</t>
+    <t>2022-11-25T11:48:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-class.xlsx
+++ b/StructureDefinition-class.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-25T22:48:13+00:00</t>
+    <t>2022-11-25T22:49:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
